--- a/storage/car.xlsx
+++ b/storage/car.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
   <si>
     <t>type</t>
   </si>
@@ -184,19 +184,40 @@
     <t>C</t>
   </si>
   <si>
-    <t>1,0,nan</t>
-  </si>
-  <si>
-    <t>A_O</t>
+    <t>3,1,5,nan,0,4,2</t>
+  </si>
+  <si>
+    <t>7,11,6,10,9,5,0,1,8,4</t>
+  </si>
+  <si>
+    <t>7,6,3,2,5,0,1,4</t>
+  </si>
+  <si>
+    <t>nan,3,2,1,0</t>
+  </si>
+  <si>
+    <t>nan,1,2,3,0</t>
+  </si>
+  <si>
+    <t>1,3,nan,0,2</t>
+  </si>
+  <si>
+    <t>nan,7,5,6,0,1,4</t>
+  </si>
+  <si>
+    <t>A_XB3</t>
+  </si>
+  <si>
+    <t>A_XB2</t>
+  </si>
+  <si>
+    <t>B_DF2</t>
+  </si>
+  <si>
+    <t>B_DF1</t>
   </si>
   <si>
     <t>A_DF3</t>
-  </si>
-  <si>
-    <t>B_DF2</t>
-  </si>
-  <si>
-    <t>B_DF1</t>
   </si>
 </sst>
 </file>
@@ -588,10 +609,10 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E2">
-        <v>252</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -602,13 +623,13 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>252</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -618,11 +639,14 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -632,11 +656,14 @@
       <c r="B5" t="s">
         <v>53</v>
       </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -646,11 +673,14 @@
       <c r="B6" t="s">
         <v>53</v>
       </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -660,11 +690,14 @@
       <c r="B7" t="s">
         <v>53</v>
       </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,11 +707,14 @@
       <c r="B8" t="s">
         <v>53</v>
       </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -689,7 +725,7 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -703,7 +739,7 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -717,7 +753,7 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -731,7 +767,7 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -745,7 +781,7 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -759,7 +795,7 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -773,7 +809,7 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -787,7 +823,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -804,10 +840,10 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E17">
-        <v>252</v>
+        <v>994</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -818,13 +854,13 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>252</v>
+        <v>994</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -834,11 +870,14 @@
       <c r="B19" t="s">
         <v>54</v>
       </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -848,11 +887,14 @@
       <c r="B20" t="s">
         <v>54</v>
       </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -862,11 +904,14 @@
       <c r="B21" t="s">
         <v>54</v>
       </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -876,11 +921,14 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -890,11 +938,14 @@
       <c r="B23" t="s">
         <v>54</v>
       </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -905,7 +956,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -919,7 +970,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -933,7 +984,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -947,7 +998,7 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -961,7 +1012,7 @@
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -975,7 +1026,7 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -989,7 +1040,7 @@
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1003,7 +1054,7 @@
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1017,7 +1068,7 @@
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1031,7 +1082,7 @@
         <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1045,7 +1096,7 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1059,7 +1110,7 @@
         <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1073,7 +1124,7 @@
         <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1087,7 +1138,7 @@
         <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1101,7 +1152,7 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1115,7 +1166,7 @@
         <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1129,7 +1180,7 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1143,7 +1194,7 @@
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1157,7 +1208,7 @@
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1171,7 +1222,7 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1185,7 +1236,7 @@
         <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1199,7 +1250,7 @@
         <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1213,7 +1264,7 @@
         <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1227,7 +1278,7 @@
         <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1241,7 +1292,7 @@
         <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1255,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E49">
         <v>0</v>

--- a/storage/car.xlsx
+++ b/storage/car.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
   <si>
     <t>type</t>
   </si>
@@ -184,37 +184,46 @@
     <t>C</t>
   </si>
   <si>
+    <t>5,0,6,4,1,2,7,3</t>
+  </si>
+  <si>
+    <t>7,11,6,10,9,5,0,1,8,4</t>
+  </si>
+  <si>
+    <t>7,6,3,2,5,0,1,4</t>
+  </si>
+  <si>
+    <t>4,6,3,5,0,7,2,1</t>
+  </si>
+  <si>
+    <t>nan,1,2,3,0</t>
+  </si>
+  <si>
+    <t>1,3,nan,0,2</t>
+  </si>
+  <si>
+    <t>4,3,5,2</t>
+  </si>
+  <si>
     <t>3,1,5,nan,0,4,2</t>
   </si>
   <si>
-    <t>7,11,6,10,9,5,0,1,8,4</t>
-  </si>
-  <si>
-    <t>7,6,3,2,5,0,1,4</t>
-  </si>
-  <si>
-    <t>nan,3,2,1,0</t>
-  </si>
-  <si>
-    <t>nan,1,2,3,0</t>
-  </si>
-  <si>
-    <t>1,3,nan,0,2</t>
-  </si>
-  <si>
     <t>nan,7,5,6,0,1,4</t>
   </si>
   <si>
+    <t>4,6,3,5,0,7,2,9,10,11,1,8</t>
+  </si>
+  <si>
     <t>A_XB3</t>
   </si>
   <si>
-    <t>A_XB2</t>
+    <t>A_DF2</t>
   </si>
   <si>
     <t>B_DF2</t>
   </si>
   <si>
-    <t>B_DF1</t>
+    <t>A_O</t>
   </si>
   <si>
     <t>A_DF3</t>
@@ -608,8 +617,8 @@
       <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>63</v>
+      <c r="D2" t="b">
+        <v>0</v>
       </c>
       <c r="E2">
         <v>994</v>
@@ -626,7 +635,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>1776</v>
@@ -643,7 +652,7 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>1372</v>
@@ -660,10 +669,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>440</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -677,7 +686,7 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>490</v>
@@ -694,7 +703,7 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>490</v>
@@ -711,7 +720,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>490</v>
@@ -725,7 +734,7 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -739,7 +748,7 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -753,7 +762,7 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -767,7 +776,7 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -781,7 +790,7 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -794,11 +803,14 @@
       <c r="B14" t="s">
         <v>53</v>
       </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -809,7 +821,7 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -823,7 +835,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -837,10 +849,10 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>994</v>
@@ -854,10 +866,10 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>994</v>
@@ -874,7 +886,7 @@
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>1372</v>
@@ -888,13 +900,13 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E20">
-        <v>440</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -908,7 +920,7 @@
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>490</v>
@@ -925,7 +937,7 @@
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>490</v>
@@ -942,7 +954,7 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>490</v>
@@ -956,7 +968,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -970,7 +982,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -984,7 +996,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -998,7 +1010,7 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1012,7 +1024,7 @@
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1026,7 +1038,7 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1040,7 +1052,7 @@
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1054,7 +1066,7 @@
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1068,7 +1080,7 @@
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1082,7 +1094,7 @@
         <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1096,7 +1108,7 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1110,7 +1122,7 @@
         <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1124,7 +1136,7 @@
         <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1138,7 +1150,7 @@
         <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1152,7 +1164,7 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1166,7 +1178,7 @@
         <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1180,7 +1192,7 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1194,7 +1206,7 @@
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1208,7 +1220,7 @@
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1222,7 +1234,7 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1236,7 +1248,7 @@
         <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1250,7 +1262,7 @@
         <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1264,7 +1276,7 @@
         <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1278,7 +1290,7 @@
         <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1292,7 +1304,7 @@
         <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1306,7 +1318,7 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E49">
         <v>0</v>

--- a/storage/car.xlsx
+++ b/storage/car.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA337116-4FB7-448E-9131-45C127DEC603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="21420" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>type</t>
   </si>
@@ -184,60 +190,25 @@
     <t>C</t>
   </si>
   <si>
-    <t>5,0,6,4,1,2,7,3</t>
-  </si>
-  <si>
-    <t>7,11,6,10,9,5,0,1,8,4</t>
-  </si>
-  <si>
-    <t>7,6,3,2,5,0,1,4</t>
-  </si>
-  <si>
-    <t>4,6,3,5,0,7,2,1</t>
-  </si>
-  <si>
-    <t>nan,1,2,3,0</t>
-  </si>
-  <si>
-    <t>1,3,nan,0,2</t>
-  </si>
-  <si>
-    <t>4,3,5,2</t>
-  </si>
-  <si>
-    <t>3,1,5,nan,0,4,2</t>
-  </si>
-  <si>
-    <t>nan,7,5,6,0,1,4</t>
-  </si>
-  <si>
-    <t>4,6,3,5,0,7,2,9,10,11,1,8</t>
-  </si>
-  <si>
-    <t>A_XB3</t>
-  </si>
-  <si>
-    <t>A_DF2</t>
-  </si>
-  <si>
     <t>B_DF2</t>
   </si>
   <si>
-    <t>A_O</t>
-  </si>
-  <si>
     <t>A_DF3</t>
+  </si>
+  <si>
+    <t>A_DF3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,8 +216,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -292,15 +270,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -342,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +360,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,6 +412,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,14 +605,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,724 +631,825 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
       </c>
       <c r="E2">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
-        <v>58</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
-        <v>59</v>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>60</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
-        <v>61</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E14">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
-        <v>63</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E17">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
-        <v>64</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
-        <v>58</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E19">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
-        <v>65</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E20">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E21">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>60</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E22">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
-        <v>61</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E23">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
       </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>54</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>55</v>
       </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
       </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>55</v>
       </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>55</v>
       </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
       </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>55</v>
       </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>55</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
       </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>55</v>
       </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
       </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
       </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/car.xlsx
+++ b/storage/car.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA337116-4FB7-448E-9131-45C127DEC603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B1BCF-A86A-497A-B9C9-EB5BBA6412C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="21420" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="696" windowWidth="21120" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
   <si>
     <t>type</t>
   </si>
@@ -190,13 +190,25 @@
     <t>C</t>
   </si>
   <si>
+    <t>1,2,0</t>
+  </si>
+  <si>
+    <t>2,0,1</t>
+  </si>
+  <si>
+    <t>A_O</t>
+  </si>
+  <si>
+    <t>A_DF3</t>
+  </si>
+  <si>
+    <t>B_O</t>
+  </si>
+  <si>
     <t>B_DF2</t>
   </si>
   <si>
-    <t>A_DF3</t>
-  </si>
-  <si>
-    <t>A_DF3</t>
+    <t>1,2,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -608,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -638,14 +650,14 @@
       <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,14 +667,14 @@
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,14 +684,14 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,14 +701,14 @@
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,14 +718,14 @@
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,14 +735,14 @@
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -761,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -778,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -791,14 +803,14 @@
       <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -829,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -846,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -863,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -880,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -897,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -914,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -931,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -948,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -965,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -982,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -999,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1016,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1033,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1050,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1063,14 +1075,14 @@
       <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="C27" t="s">
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1101,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1118,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1135,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1152,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1169,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1186,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1203,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1220,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1237,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1254,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1271,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1288,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1301,14 +1313,14 @@
       <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="C41">
-        <v>0</v>
+      <c r="C41" t="s">
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1322,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1339,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1356,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1373,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1390,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1407,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1424,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1441,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E49">
         <v>0</v>

--- a/storage/car.xlsx
+++ b/storage/car.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\storage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B1BCF-A86A-497A-B9C9-EB5BBA6412C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="696" windowWidth="21120" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
   <si>
     <t>type</t>
   </si>
@@ -190,37 +184,165 @@
     <t>C</t>
   </si>
   <si>
-    <t>1,2,0</t>
-  </si>
-  <si>
-    <t>2,0,1</t>
+    <t>367,288,335,212,249,399,245,256,247,253,398,215,187,246,252,426,427,287,274,244,337,251,183,213,334,336,243,368,182,255,273,248,214,250,0,188,254</t>
+  </si>
+  <si>
+    <t>367,218,335,244,212,337,183,213,399,219,334,336,243,398,368,215,182,426,270,427,269,214,0</t>
+  </si>
+  <si>
+    <t>367,218,244,212,183,213,399,245,219,279,243,398,368,215,246,182,273,426,427,280,214,0,274</t>
+  </si>
+  <si>
+    <t>218,244,212,183,213,399,219,279,243,398,215,182,426,427,280,214,0</t>
+  </si>
+  <si>
+    <t>367,244,212,249,426,213,399,427,214,250,0,243,398,368,215</t>
+  </si>
+  <si>
+    <t>367,212,426,213,399,427,214,0,398,368,215</t>
+  </si>
+  <si>
+    <t>367,426,399,427,214,0,398,368,215</t>
+  </si>
+  <si>
+    <t>367,335,337,426,151,399,427,334,336,0,150,398,368</t>
+  </si>
+  <si>
+    <t>335,337,426,399,427,334,336,0,398</t>
+  </si>
+  <si>
+    <t>365,367,366,334,335,337,336,0,368</t>
+  </si>
+  <si>
+    <t>367,295,281,325,317,180,299,290,285,346,291,253,185,298,398,215,246,323,252,265,348,294,343,270,427,324,300,287,211,312,350,292,275,244,176,349,271,213,353,263,329,282,327,283,354,315,321,316,257,202,362,296,255,207,293,273,347,204,250,340,206,344,313,345,330,288,212,249,399,326,245,328,256,279,247,209,208,310,352,284,179,360,426,203,201,318,269,268,276,342,322,319,274,272,251,210,183,266,177,314,331,267,184,243,181,361,289,368,264,182,351,178,355,248,280,301,214,311,286,359,242,320,357,0,341,356,254</t>
+  </si>
+  <si>
+    <t>208,313,215,214,361,181,0,204,203,263,312,298,206,314,360,179,340,311,280,281,176,300,310,282,362,359,299,209,180,318,201,343,211,244,207,202,322,270,344,213,342,321,177,316,264,182,279,320,323,269,183,341,319,178,317,212,345,301,210,315,245</t>
+  </si>
+  <si>
+    <t>208,214,361,181,0,203,204,298,206,242,360,179,311,184,176,310,243,362,359,205,299,201,211,244,207,202,270,213,177,182,269,183,178,212,245</t>
+  </si>
+  <si>
+    <t>211,244,181,214,0,270,213,298,242,311,182,269,184,183,310,243,212,299,245</t>
+  </si>
+  <si>
+    <t>274,299,182,212,213,244,183,279,0,245,273,280,215,214,298</t>
+  </si>
+  <si>
+    <t>151,150,218,219,0,243,244</t>
+  </si>
+  <si>
+    <t>249,243,365,367,366,250,244,0,368</t>
+  </si>
+  <si>
+    <t>243,279,244,0,280</t>
+  </si>
+  <si>
+    <t>367,182,426,399,427,0,181,398,368</t>
+  </si>
+  <si>
+    <t>0,182,181</t>
+  </si>
+  <si>
+    <t>335,0,334</t>
+  </si>
+  <si>
+    <t>0,334,335</t>
+  </si>
+  <si>
+    <t>0,273,274</t>
+  </si>
+  <si>
+    <t>246,244,0,243,245</t>
+  </si>
+  <si>
+    <t>367,299,399,298,181,310,398,368,182,273,426,427,311,340,0,274,341</t>
+  </si>
+  <si>
+    <t>279,340,0,181,182,280,341</t>
+  </si>
+  <si>
+    <t>183,177,176,182,287,341,340,288,0</t>
+  </si>
+  <si>
+    <t>206,288,310,213,287,207,311,212,0</t>
+  </si>
+  <si>
+    <t>310,213,211,176,183,201,181,0,269,177,311,203,212,204,214,182,202,270,184</t>
+  </si>
+  <si>
+    <t>279,213,0,212,280,270,269</t>
+  </si>
+  <si>
+    <t>0,310,182,311,244,181,243</t>
+  </si>
+  <si>
+    <t>151,187,190,150,188,0,189</t>
+  </si>
+  <si>
+    <t>0,335,334,368,367</t>
+  </si>
+  <si>
+    <t>273,0,274</t>
+  </si>
+  <si>
+    <t>0,366,365,367,368</t>
+  </si>
+  <si>
+    <t>176,182,213,184,177,186,181,299,185,212,244,183,279,0,245,280,298</t>
+  </si>
+  <si>
+    <t>281,282,280,275,246,243,273,278,0,258,274,183,245,182,368,367,244,257,277,279,276</t>
+  </si>
+  <si>
+    <t>0,310,311,257,258</t>
+  </si>
+  <si>
+    <t>212,0,244,213,341,340,274,176,273,177,245</t>
+  </si>
+  <si>
+    <t>311,244,310,207,243,0,273,206,274</t>
+  </si>
+  <si>
+    <t>B_O</t>
+  </si>
+  <si>
+    <t>B_XB2</t>
+  </si>
+  <si>
+    <t>A_XB2</t>
+  </si>
+  <si>
+    <t>B_DF3</t>
+  </si>
+  <si>
+    <t>A_XN2</t>
+  </si>
+  <si>
+    <t>A_DF1</t>
   </si>
   <si>
     <t>A_O</t>
   </si>
   <si>
-    <t>A_DF3</t>
-  </si>
-  <si>
-    <t>B_O</t>
+    <t>B_XB3</t>
   </si>
   <si>
     <t>B_DF2</t>
   </si>
   <si>
-    <t>1,2,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>A_DF2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,15 +350,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,23 +397,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -340,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,27 +479,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,24 +513,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,16 +688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -643,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -651,16 +720,16 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -668,16 +737,16 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -685,16 +754,16 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -702,16 +771,16 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -719,16 +788,16 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -736,67 +805,67 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -804,271 +873,271 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" t="s">
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" t="s">
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" t="s">
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="C23" t="s">
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="C24" t="s">
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="C25" t="s">
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="C26" t="s">
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1076,254 +1145,254 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" t="s">
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" t="s">
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" t="s">
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="C31">
-        <v>0</v>
+      <c r="C31" t="s">
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="C32" t="s">
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="C33" t="s">
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="C34" t="s">
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="C35" t="s">
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="C36" t="s">
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C37">
-        <v>0</v>
+      <c r="C37" t="s">
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="C38">
-        <v>0</v>
+      <c r="C38" t="s">
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>55</v>
       </c>
-      <c r="C39">
-        <v>0</v>
+      <c r="C39" t="s">
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
       </c>
-      <c r="C40">
-        <v>0</v>
+      <c r="C40" t="s">
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="C41" t="s">
-        <v>57</v>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1334,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1351,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1368,100 +1437,98 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="C45">
-        <v>0</v>
+      <c r="C45" t="s">
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="C46">
-        <v>0</v>
+      <c r="C46" t="s">
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C47">
-        <v>0</v>
+      <c r="C47" t="s">
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="C48">
-        <v>0</v>
+      <c r="C48" t="s">
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="C49" t="s">
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1434</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/car.xlsx
+++ b/storage/car.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -193,16 +193,16 @@
     <t>367,218,244,212,183,213,399,245,219,279,243,398,368,215,246,182,273,426,427,280,214,0,274</t>
   </si>
   <si>
-    <t>218,244,212,183,213,399,219,279,243,398,215,182,426,427,280,214,0</t>
-  </si>
-  <si>
-    <t>367,244,212,249,426,213,399,427,214,250,0,243,398,368,215</t>
-  </si>
-  <si>
-    <t>367,212,426,213,399,427,214,0,398,368,215</t>
-  </si>
-  <si>
-    <t>367,426,399,427,214,0,398,368,215</t>
+    <t>427,279,214,183,398,257,244,280,399,182,215,0,426,258,212,243,213,219,218</t>
+  </si>
+  <si>
+    <t>427,249,214,398,257,368,250,244,399,215,0,426,258,212,243,367,213</t>
+  </si>
+  <si>
+    <t>427,214,215,0,257,398,368,426,258,212,399,367,213</t>
+  </si>
+  <si>
+    <t>0,399,367,319,427,426,318,214,215,398,368</t>
   </si>
   <si>
     <t>367,335,337,426,151,399,427,334,336,0,150,398,368</t>
@@ -214,7 +214,7 @@
     <t>365,367,366,334,335,337,336,0,368</t>
   </si>
   <si>
-    <t>367,295,281,325,317,180,299,290,285,346,291,253,185,298,398,215,246,323,252,265,348,294,343,270,427,324,300,287,211,312,350,292,275,244,176,349,271,213,353,263,329,282,327,283,354,315,321,316,257,202,362,296,255,207,293,273,347,204,250,340,206,344,313,345,330,288,212,249,399,326,245,328,256,279,247,209,208,310,352,284,179,360,426,203,201,318,269,268,276,342,322,319,274,272,251,210,183,266,177,314,331,267,184,243,181,361,289,368,264,182,351,178,355,248,280,301,214,311,286,359,242,320,357,0,341,356,254</t>
+    <t>285,333,359,251,180,264,177,184,310,0,427,269,266,254,294,346,295,210,265,342,354,315,331,283,321,204,202,357,178,287,203,292,340,246,282,322,311,314,268,257,289,209,185,182,313,212,245,249,324,252,279,316,353,347,248,349,179,356,253,351,299,325,244,280,326,213,298,368,344,242,176,207,367,320,215,398,301,263,288,291,362,399,272,290,214,360,201,332,255,247,243,328,312,426,330,270,318,256,284,211,206,275,350,319,274,300,281,183,296,348,181,317,267,286,273,352,341,345,329,271,208,250,293,343,276,361,323,327,355</t>
   </si>
   <si>
     <t>208,313,215,214,361,181,0,204,203,263,312,298,206,314,360,179,340,311,280,281,176,300,310,282,362,359,299,209,180,318,201,343,211,244,207,202,322,270,344,213,342,321,177,316,264,182,279,320,323,269,183,341,319,178,317,212,345,301,210,315,245</t>
@@ -253,7 +253,7 @@
     <t>0,273,274</t>
   </si>
   <si>
-    <t>246,244,0,243,245</t>
+    <t>246,0,243,319,244,245,318</t>
   </si>
   <si>
     <t>367,299,399,298,181,310,398,368,182,273,426,427,311,340,0,274,341</t>
@@ -292,7 +292,7 @@
     <t>176,182,213,184,177,186,181,299,185,212,244,183,279,0,245,280,298</t>
   </si>
   <si>
-    <t>281,282,280,275,246,243,273,278,0,258,274,183,245,182,368,367,244,257,277,279,276</t>
+    <t>275,257,273,279,319,244,280,274,281,258,183,182,368,278,0,277,243,276,367,245,318,246,282</t>
   </si>
   <si>
     <t>0,310,311,257,258</t>
@@ -307,25 +307,22 @@
     <t>B_O</t>
   </si>
   <si>
+    <t>A_XB2</t>
+  </si>
+  <si>
+    <t>B_DF3</t>
+  </si>
+  <si>
+    <t>A_XN2</t>
+  </si>
+  <si>
+    <t>A_DF1</t>
+  </si>
+  <si>
+    <t>A_O</t>
+  </si>
+  <si>
     <t>B_XB2</t>
-  </si>
-  <si>
-    <t>A_XB2</t>
-  </si>
-  <si>
-    <t>B_DF3</t>
-  </si>
-  <si>
-    <t>A_XN2</t>
-  </si>
-  <si>
-    <t>A_DF1</t>
-  </si>
-  <si>
-    <t>A_O</t>
-  </si>
-  <si>
-    <t>B_XB3</t>
   </si>
   <si>
     <t>B_DF2</t>
@@ -774,10 +771,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>3744</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +788,10 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>3122</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +805,10 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7">
-        <v>2820</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +822,10 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8">
-        <v>2338</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -876,7 +873,7 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>1396</v>
@@ -893,10 +890,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12">
-        <v>25762</v>
+        <v>26054</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,7 +907,7 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>12338</v>
@@ -927,7 +924,7 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>6310</v>
@@ -944,7 +941,7 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <v>3094</v>
@@ -961,7 +958,7 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16">
         <v>2810</v>
@@ -978,7 +975,7 @@
         <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>854</v>
@@ -995,7 +992,7 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18">
         <v>894</v>
@@ -1012,7 +1009,7 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>352</v>
@@ -1029,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>352</v>
@@ -1063,7 +1060,7 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22">
         <v>200</v>
@@ -1080,7 +1077,7 @@
         <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23">
         <v>302</v>
@@ -1097,7 +1094,7 @@
         <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24">
         <v>302</v>
@@ -1114,7 +1111,7 @@
         <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25">
         <v>200</v>
@@ -1131,7 +1128,7 @@
         <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -1148,10 +1145,10 @@
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E27">
-        <v>974</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,7 +1162,7 @@
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E28">
         <v>2508</v>
@@ -1182,7 +1179,7 @@
         <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29">
         <v>902</v>
@@ -1199,7 +1196,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30">
         <v>1384</v>
@@ -1216,7 +1213,7 @@
         <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31">
         <v>1384</v>
@@ -1233,7 +1230,7 @@
         <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32">
         <v>2912</v>
@@ -1250,7 +1247,7 @@
         <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33">
         <v>904</v>
@@ -1267,7 +1264,7 @@
         <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34">
         <v>904</v>
@@ -1284,7 +1281,7 @@
         <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35">
         <v>1056</v>
@@ -1318,7 +1315,7 @@
         <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37">
         <v>302</v>
@@ -1335,7 +1332,7 @@
         <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38">
         <v>302</v>
@@ -1352,7 +1349,7 @@
         <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39">
         <v>302</v>
@@ -1369,7 +1366,7 @@
         <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40">
         <v>390</v>
@@ -1386,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1403,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1420,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1437,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1454,7 +1451,7 @@
         <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45">
         <v>2712</v>
@@ -1471,10 +1468,10 @@
         <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46">
-        <v>3956</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1488,7 +1485,7 @@
         <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47">
         <v>450</v>
@@ -1505,7 +1502,7 @@
         <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E48">
         <v>1786</v>
@@ -1522,7 +1519,7 @@
         <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <v>1434</v>

--- a/storage/car.xlsx
+++ b/storage/car.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -184,49 +184,49 @@
     <t>C</t>
   </si>
   <si>
-    <t>367,288,335,212,249,399,245,256,247,253,398,215,187,246,252,426,427,287,274,244,337,251,183,213,334,336,243,368,182,255,273,248,214,250,0,188,254</t>
-  </si>
-  <si>
-    <t>367,218,335,244,212,337,183,213,399,219,334,336,243,398,368,215,182,426,270,427,269,214,0</t>
-  </si>
-  <si>
-    <t>367,218,244,212,183,213,399,245,219,279,243,398,368,215,246,182,273,426,427,280,214,0,274</t>
-  </si>
-  <si>
-    <t>427,279,214,183,398,257,244,280,399,182,215,0,426,258,212,243,213,219,218</t>
-  </si>
-  <si>
-    <t>427,249,214,398,257,368,250,244,399,215,0,426,258,212,243,367,213</t>
-  </si>
-  <si>
-    <t>427,214,215,0,257,398,368,426,258,212,399,367,213</t>
-  </si>
-  <si>
-    <t>0,399,367,319,427,426,318,214,215,398,368</t>
-  </si>
-  <si>
-    <t>367,335,337,426,151,399,427,334,336,0,150,398,368</t>
-  </si>
-  <si>
-    <t>335,337,426,399,427,334,336,0,398</t>
-  </si>
-  <si>
-    <t>365,367,366,334,335,337,336,0,368</t>
-  </si>
-  <si>
-    <t>285,333,359,251,180,264,177,184,310,0,427,269,266,254,294,346,295,210,265,342,354,315,331,283,321,204,202,357,178,287,203,292,340,246,282,322,311,314,268,257,289,209,185,182,313,212,245,249,324,252,279,316,353,347,248,349,179,356,253,351,299,325,244,280,326,213,298,368,344,242,176,207,367,320,215,398,301,263,288,291,362,399,272,290,214,360,201,332,255,247,243,328,312,426,330,270,318,256,284,211,206,275,350,319,274,300,281,183,296,348,181,317,267,286,273,352,341,345,329,271,208,250,293,343,276,361,323,327,355</t>
-  </si>
-  <si>
-    <t>208,313,215,214,361,181,0,204,203,263,312,298,206,314,360,179,340,311,280,281,176,300,310,282,362,359,299,209,180,318,201,343,211,244,207,202,322,270,344,213,342,321,177,316,264,182,279,320,323,269,183,341,319,178,317,212,345,301,210,315,245</t>
-  </si>
-  <si>
-    <t>208,214,361,181,0,203,204,298,206,242,360,179,311,184,176,310,243,362,359,205,299,201,211,244,207,202,270,213,177,182,269,183,178,212,245</t>
-  </si>
-  <si>
-    <t>211,244,181,214,0,270,213,298,242,311,182,269,184,183,310,243,212,299,245</t>
-  </si>
-  <si>
-    <t>274,299,182,212,213,244,183,279,0,245,273,280,215,214,298</t>
+    <t>399,336,368,409,187,417,371,398,337,253,248,367,212,403,188,247,252,419,250,182,406,254,287,427,273,183,243,244,255,0,372,404,249,407,334,418,215,335,245,414,408,405,411,426,246,416,402,288,213,410,251,412,413,274,214,415,256</t>
+  </si>
+  <si>
+    <t>270,0,215,398,399,183,243,219,337,371,426,213,372,212,335,336,214,244,334,218,182,368,427,269,367</t>
+  </si>
+  <si>
+    <t>245,280,0,215,246,398,399,279,183,243,219,426,371,213,372,212,214,244,273,218,182,274,368,427,367</t>
+  </si>
+  <si>
+    <t>442,448,243,443,452,426,437,453,438,440,446,219,433,182,431,365,212,451,403,398,280,244,447,444,445,183,432,257,402,435,258,436,434,213,368,366,399,218,0,449,215,427,439,441,214,279,367,450,430</t>
+  </si>
+  <si>
+    <t>0,258,249,215,398,250,243,426,371,213,372,212,368,257,214,244,399,427,367</t>
+  </si>
+  <si>
+    <t>213,372,212,368,257,214,0,258,215,398,399,427,367,426,371</t>
+  </si>
+  <si>
+    <t>372,214,0,319,215,398,399,368,427,367,426,371,318</t>
+  </si>
+  <si>
+    <t>150,372,426,337,0,334,151,398,399,368,427,367,335,336,371</t>
+  </si>
+  <si>
+    <t>403,367,368,335,371,0,402,426,337,372,399,334,427,336,398</t>
+  </si>
+  <si>
+    <t>368,426,334,366,427,430,335,337,0,336,399,398,431,367,365</t>
+  </si>
+  <si>
+    <t>270,266,284,331,355,183,267,361,181,212,352,326,341,184,204,340,210,367,263,253,360,249,247,296,426,372,350,214,287,255,330,290,179,316,353,282,311,201,356,345,213,271,315,324,242,332,285,281,245,344,349,314,248,320,325,244,207,321,293,333,298,209,295,357,398,250,275,292,208,347,300,362,274,327,185,328,0,268,280,348,246,313,371,318,264,276,182,351,427,342,319,317,346,291,359,322,178,272,329,279,343,312,254,299,176,289,286,273,211,368,269,252,310,206,215,301,180,203,243,265,323,177,354,257,251,256,288,399,294,202,283</t>
+  </si>
+  <si>
+    <t>321,206,366,299,178,244,322,316,264,340,341,311,270,176,212,342,372,310,204,211,214,269,427,182,209,263,317,210,181,367,282,179,201,368,426,203,323,318,0,313,398,359,213,298,312,300,319,207,362,314,430,215,371,399,431,365,361,345,320,180,343,280,360,202,281,279,301,315,177,183,245,208,344</t>
+  </si>
+  <si>
+    <t>399,398,310,368,214,0,359,204,360,426,244,243,462,211,242,212,179,206,178,427,461,311,182,177,183,208,270,245,181,207,205,203,201,298,213,184,269,362,367,361,176,299,202</t>
+  </si>
+  <si>
+    <t>399,398,310,311,368,182,183,0,214,270,426,244,245,181,243,298,184,462,213,211,242,269,212,367,299,427,461</t>
+  </si>
+  <si>
+    <t>245,183,426,299,273,213,280,368,367,399,182,431,0,274,427,215,298,212,279,214,398,244,430</t>
   </si>
   <si>
     <t>151,150,218,219,0,243,244</t>
@@ -235,13 +235,16 @@
     <t>249,243,365,367,366,250,244,0,368</t>
   </si>
   <si>
+    <t>432,372,243,402,371,426,373,280,462,368,367,375,399,433,431,461,0,370,427,279,403,398,374,244,430</t>
+  </si>
+  <si>
     <t>243,279,244,0,280</t>
   </si>
   <si>
-    <t>367,182,426,399,427,0,181,398,368</t>
-  </si>
-  <si>
-    <t>0,182,181</t>
+    <t>399,402,181,368,182,398,427,367,403,0,426</t>
+  </si>
+  <si>
+    <t>426,182,399,427,398,0,181</t>
   </si>
   <si>
     <t>335,0,334</t>
@@ -253,19 +256,19 @@
     <t>0,273,274</t>
   </si>
   <si>
-    <t>246,0,243,319,244,245,318</t>
+    <t>398,367,319,365,368,246,399,243,0,244,245,366,318</t>
   </si>
   <si>
     <t>367,299,399,298,181,310,398,368,182,273,426,427,311,340,0,274,341</t>
   </si>
   <si>
-    <t>279,340,0,181,182,280,341</t>
-  </si>
-  <si>
-    <t>183,177,176,182,287,341,340,288,0</t>
-  </si>
-  <si>
-    <t>206,288,310,213,287,207,311,212,0</t>
+    <t>398,402,340,365,181,399,280,182,0,366,279,403,341</t>
+  </si>
+  <si>
+    <t>0,177,182,176,365,367,366,183,287,341,368,340,288</t>
+  </si>
+  <si>
+    <t>311,0,310,207,288,365,367,213,366,206,368,212,287</t>
   </si>
   <si>
     <t>310,213,211,176,183,201,181,0,269,177,311,203,212,204,214,182,202,270,184</t>
@@ -280,7 +283,7 @@
     <t>151,187,190,150,188,0,189</t>
   </si>
   <si>
-    <t>0,335,334,368,367</t>
+    <t>426,427,334,0,367,368,335</t>
   </si>
   <si>
     <t>273,0,274</t>
@@ -289,13 +292,16 @@
     <t>0,366,365,367,368</t>
   </si>
   <si>
+    <t>365,366,0,367,368</t>
+  </si>
+  <si>
     <t>176,182,213,184,177,186,181,299,185,212,244,183,279,0,245,280,298</t>
   </si>
   <si>
-    <t>275,257,273,279,319,244,280,274,281,258,183,182,368,278,0,277,243,276,367,245,318,246,282</t>
-  </si>
-  <si>
-    <t>0,310,311,257,258</t>
+    <t>245,257,183,402,243,277,278,258,273,246,462,368,367,318,281,319,182,431,282,461,0,276,274,279,403,280,244,275,430</t>
+  </si>
+  <si>
+    <t>424,368,311,425,366,430,310,0,258,257,431,367,365</t>
   </si>
   <si>
     <t>212,0,244,213,341,340,274,176,273,177,245</t>
@@ -304,28 +310,28 @@
     <t>311,244,310,207,243,0,273,206,274</t>
   </si>
   <si>
-    <t>B_O</t>
+    <t>B_DF2</t>
+  </si>
+  <si>
+    <t>B_DF1</t>
+  </si>
+  <si>
+    <t>A_XN2</t>
   </si>
   <si>
     <t>A_XB2</t>
   </si>
   <si>
+    <t>A_DF1</t>
+  </si>
+  <si>
     <t>B_DF3</t>
   </si>
   <si>
-    <t>A_XN2</t>
-  </si>
-  <si>
-    <t>A_DF1</t>
-  </si>
-  <si>
     <t>A_O</t>
   </si>
   <si>
     <t>B_XB2</t>
-  </si>
-  <si>
-    <t>B_DF2</t>
   </si>
   <si>
     <t>A_DF2</t>
@@ -720,10 +726,10 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>9632</v>
+        <v>13450</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -737,10 +743,10 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>6520</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -754,10 +760,10 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>5778</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -771,10 +777,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>4036</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -788,10 +794,10 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>3414</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -805,10 +811,10 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E7">
-        <v>3112</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -822,10 +828,10 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8">
-        <v>2630</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -839,10 +845,10 @@
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E9">
-        <v>3812</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -856,10 +862,10 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E10">
-        <v>2208</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -873,10 +879,10 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11">
-        <v>1396</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -890,10 +896,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E12">
-        <v>26054</v>
+        <v>26254</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -907,10 +913,10 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13">
-        <v>12338</v>
+        <v>15246</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -924,10 +930,10 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14">
-        <v>6310</v>
+        <v>8816</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -941,10 +947,10 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15">
-        <v>3094</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -958,10 +964,10 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16">
-        <v>2810</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -975,7 +981,7 @@
         <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>854</v>
@@ -992,7 +998,7 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E18">
         <v>894</v>
@@ -1009,10 +1015,10 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19">
-        <v>352</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1023,10 +1029,10 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E20">
         <v>352</v>
@@ -1040,13 +1046,13 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E21">
-        <v>2306</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1057,13 +1063,13 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22">
-        <v>200</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1074,10 +1080,10 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E23">
         <v>302</v>
@@ -1091,10 +1097,10 @@
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E24">
         <v>302</v>
@@ -1108,10 +1114,10 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>200</v>
@@ -1125,10 +1131,10 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -1142,13 +1148,13 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E27">
-        <v>1214</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1159,10 +1165,10 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E28">
         <v>2508</v>
@@ -1176,13 +1182,13 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E29">
-        <v>902</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1193,13 +1199,13 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>103</v>
       </c>
       <c r="E30">
-        <v>1384</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1210,13 +1216,13 @@
         <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
         <v>103</v>
       </c>
       <c r="E31">
-        <v>1384</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1227,10 +1233,10 @@
         <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>2912</v>
@@ -1244,10 +1250,10 @@
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E33">
         <v>904</v>
@@ -1261,10 +1267,10 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E34">
         <v>904</v>
@@ -1278,10 +1284,10 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35">
         <v>1056</v>
@@ -1295,13 +1301,13 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E36">
-        <v>1004</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,10 +1318,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E37">
         <v>302</v>
@@ -1329,10 +1335,10 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E38">
         <v>302</v>
@@ -1346,10 +1352,10 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E39">
         <v>302</v>
@@ -1363,10 +1369,10 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E40">
         <v>390</v>
@@ -1379,14 +1385,14 @@
       <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="C41">
-        <v>0</v>
+      <c r="C41" t="s">
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1400,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1417,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1434,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1448,10 +1454,10 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E45">
         <v>2712</v>
@@ -1465,13 +1471,13 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E46">
-        <v>4248</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1482,13 +1488,13 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E47">
-        <v>450</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1499,10 +1505,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E48">
         <v>1786</v>
@@ -1516,10 +1522,10 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E49">
         <v>1434</v>

--- a/storage/car.xlsx
+++ b/storage/car.xlsx
@@ -184,49 +184,49 @@
     <t>C</t>
   </si>
   <si>
-    <t>399,336,368,409,187,417,371,398,337,253,248,367,212,403,188,247,252,419,250,182,406,254,287,427,273,183,243,244,255,0,372,404,249,407,334,418,215,335,245,414,408,405,411,426,246,416,402,288,213,410,251,412,413,274,214,415,256</t>
-  </si>
-  <si>
-    <t>270,0,215,398,399,183,243,219,337,371,426,213,372,212,335,336,214,244,334,218,182,368,427,269,367</t>
-  </si>
-  <si>
-    <t>245,280,0,215,246,398,399,279,183,243,219,426,371,213,372,212,214,244,273,218,182,274,368,427,367</t>
-  </si>
-  <si>
-    <t>442,448,243,443,452,426,437,453,438,440,446,219,433,182,431,365,212,451,403,398,280,244,447,444,445,183,432,257,402,435,258,436,434,213,368,366,399,218,0,449,215,427,439,441,214,279,367,450,430</t>
-  </si>
-  <si>
-    <t>0,258,249,215,398,250,243,426,371,213,372,212,368,257,214,244,399,427,367</t>
-  </si>
-  <si>
-    <t>213,372,212,368,257,214,0,258,215,398,399,427,367,426,371</t>
-  </si>
-  <si>
-    <t>372,214,0,319,215,398,399,368,427,367,426,371,318</t>
-  </si>
-  <si>
-    <t>150,372,426,337,0,334,151,398,399,368,427,367,335,336,371</t>
-  </si>
-  <si>
-    <t>403,367,368,335,371,0,402,426,337,372,399,334,427,336,398</t>
-  </si>
-  <si>
-    <t>368,426,334,366,427,430,335,337,0,336,399,398,431,367,365</t>
-  </si>
-  <si>
-    <t>270,266,284,331,355,183,267,361,181,212,352,326,341,184,204,340,210,367,263,253,360,249,247,296,426,372,350,214,287,255,330,290,179,316,353,282,311,201,356,345,213,271,315,324,242,332,285,281,245,344,349,314,248,320,325,244,207,321,293,333,298,209,295,357,398,250,275,292,208,347,300,362,274,327,185,328,0,268,280,348,246,313,371,318,264,276,182,351,427,342,319,317,346,291,359,322,178,272,329,279,343,312,254,299,176,289,286,273,211,368,269,252,310,206,215,301,180,203,243,265,323,177,354,257,251,256,288,399,294,202,283</t>
-  </si>
-  <si>
-    <t>321,206,366,299,178,244,322,316,264,340,341,311,270,176,212,342,372,310,204,211,214,269,427,182,209,263,317,210,181,367,282,179,201,368,426,203,323,318,0,313,398,359,213,298,312,300,319,207,362,314,430,215,371,399,431,365,361,345,320,180,343,280,360,202,281,279,301,315,177,183,245,208,344</t>
-  </si>
-  <si>
-    <t>399,398,310,368,214,0,359,204,360,426,244,243,462,211,242,212,179,206,178,427,461,311,182,177,183,208,270,245,181,207,205,203,201,298,213,184,269,362,367,361,176,299,202</t>
-  </si>
-  <si>
-    <t>399,398,310,311,368,182,183,0,214,270,426,244,245,181,243,298,184,462,213,211,242,269,212,367,299,427,461</t>
-  </si>
-  <si>
-    <t>245,183,426,299,273,213,280,368,367,399,182,431,0,274,427,215,298,212,279,214,398,244,430</t>
+    <t>365,366,487,253,367,419,458,214,399,255,337,415,273,402,213,252,409,418,427,407,368,183,404,335,256,336,254,250,414,288,182,215,412,398,372,426,406,188,411,245,413,248,417,212,403,251,287,334,247,416,408,246,187,274,405,371,249,488,519,410,0,243,518,244,457</t>
+  </si>
+  <si>
+    <t>182,218,215,487,398,269,427,367,371,372,426,488,519,219,368,183,458,212,214,399,0,335,337,243,213,270,334,518,336,244,457</t>
+  </si>
+  <si>
+    <t>182,218,215,246,487,280,398,274,427,367,371,372,426,245,488,519,219,368,183,458,212,214,399,0,279,243,273,213,518,244,457</t>
+  </si>
+  <si>
+    <t>443,442,182,218,215,434,365,258,487,366,398,430,367,431,432,426,219,458,448,212,403,214,436,399,452,449,279,213,402,437,450,435,441,257,451,453,280,427,433,446,488,445,368,519,440,183,438,439,0,444,243,518,244,447,457</t>
+  </si>
+  <si>
+    <t>215,257,258,487,398,427,371,367,372,426,249,488,519,368,458,212,214,399,0,243,518,213,244,250,457</t>
+  </si>
+  <si>
+    <t>215,257,258,487,398,427,371,367,372,426,488,519,368,458,212,214,399,0,518,213,457</t>
+  </si>
+  <si>
+    <t>319,215,487,398,427,371,367,372,426,488,519,368,318,458,214,399,0,518,457</t>
+  </si>
+  <si>
+    <t>487,398,427,371,367,372,426,488,519,150,368,458,151,399,0,335,337,518,336,334,457</t>
+  </si>
+  <si>
+    <t>487,398,427,371,367,372,426,488,519,368,458,403,399,0,335,337,518,336,402,334,457</t>
+  </si>
+  <si>
+    <t>365,366,487,398,427,430,367,431,426,488,519,368,458,399,0,335,337,518,336,334,457</t>
+  </si>
+  <si>
+    <t>268,360,487,253,326,367,292,267,180,286,328,214,255,352,252,257,298,280,427,208,311,368,318,264,284,310,348,256,315,288,319,295,215,265,178,330,317,346,332,372,331,266,344,322,333,320,210,201,274,207,296,343,249,488,519,321,316,329,242,263,244,204,342,457,209,276,314,176,353,361,177,351,327,312,184,202,347,349,458,399,282,301,279,213,273,270,345,325,362,291,359,179,290,183,281,283,357,181,356,341,254,250,271,182,289,340,398,269,211,324,426,245,248,212,285,251,355,287,294,206,247,293,350,203,300,323,246,371,185,354,299,313,0,243,518,275,272</t>
+  </si>
+  <si>
+    <t>209,314,176,365,361,360,487,366,177,430,367,312,431,180,202,458,214,399,282,301,279,213,270,345,362,298,359,280,427,208,311,179,368,318,183,281,264,310,181,341,315,319,215,182,317,178,340,398,269,211,372,426,245,212,344,322,206,320,210,203,300,201,323,207,371,343,299,313,488,519,321,316,0,263,244,518,204,342,457</t>
+  </si>
+  <si>
+    <t>182,176,178,361,360,487,177,269,398,367,184,211,426,245,202,458,212,214,399,213,270,206,203,362,462,201,298,359,207,427,208,299,179,311,488,368,519,205,183,461,181,0,242,310,243,518,244,204,457</t>
+  </si>
+  <si>
+    <t>182,487,398,269,367,184,211,426,245,458,212,214,399,213,270,462,298,427,299,311,488,368,519,183,461,181,0,242,310,243,518,244,457</t>
+  </si>
+  <si>
+    <t>182,215,298,487,280,398,274,430,367,427,431,426,299,245,488,368,519,183,458,212,214,399,0,279,518,273,213,244,457</t>
   </si>
   <si>
     <t>151,150,218,219,0,243,244</t>
@@ -235,16 +235,16 @@
     <t>249,243,365,367,366,250,244,0,368</t>
   </si>
   <si>
-    <t>432,372,243,402,371,426,373,280,462,368,367,375,399,433,431,461,0,370,427,279,403,398,374,244,430</t>
+    <t>427,373,367,372,374,403,375,243,368,461,402,398,430,280,431,462,0,370,399,279,244,432,433,366,371,426,365</t>
   </si>
   <si>
     <t>243,279,244,0,280</t>
   </si>
   <si>
-    <t>399,402,181,368,182,398,427,367,403,0,426</t>
-  </si>
-  <si>
-    <t>426,182,399,427,398,0,181</t>
+    <t>399,427,396,402,0,397,426,182,403,368,398,367,181</t>
+  </si>
+  <si>
+    <t>426,427,182,0,365,366,398,399,181</t>
   </si>
   <si>
     <t>335,0,334</t>
@@ -271,7 +271,7 @@
     <t>311,0,310,207,288,365,367,213,366,206,368,212,287</t>
   </si>
   <si>
-    <t>310,213,211,176,183,201,181,0,269,177,311,203,212,204,214,182,202,270,184</t>
+    <t>201,182,213,204,212,184,270,214,420,0,269,310,181,203,177,183,202,176,421,211,311</t>
   </si>
   <si>
     <t>279,213,0,212,280,270,269</t>
@@ -283,7 +283,7 @@
     <t>151,187,190,150,188,0,189</t>
   </si>
   <si>
-    <t>426,427,334,0,367,368,335</t>
+    <t>426,427,334,365,335,367,366,368,0</t>
   </si>
   <si>
     <t>273,0,274</t>
@@ -295,43 +295,43 @@
     <t>365,366,0,367,368</t>
   </si>
   <si>
-    <t>176,182,213,184,177,186,181,299,185,212,244,183,279,0,245,280,298</t>
-  </si>
-  <si>
-    <t>245,257,183,402,243,277,278,258,273,246,462,368,367,318,281,319,182,431,282,461,0,276,274,279,403,280,244,275,430</t>
-  </si>
-  <si>
-    <t>424,368,311,425,366,430,310,0,258,257,431,367,365</t>
-  </si>
-  <si>
-    <t>212,0,244,213,341,340,274,176,273,177,245</t>
-  </si>
-  <si>
-    <t>311,244,310,207,243,0,273,206,274</t>
+    <t>185,299,182,280,365,176,0,184,298,183,181,212,186,366,177,279,244,213,245</t>
+  </si>
+  <si>
+    <t>183,278,257,246,274,367,245,182,403,277,281,243,368,276,282,461,402,430,280,431,462,275,0,244,273,279,319,366,258,318,365</t>
+  </si>
+  <si>
+    <t>366,365,396,311,310,425,0,397,424,258,431,368,257,367,430</t>
+  </si>
+  <si>
+    <t>365,244,340,213,212,0,177,274,273,245,176,366,341</t>
+  </si>
+  <si>
+    <t>207,310,274,311,206,365,366,243,273,0,244</t>
+  </si>
+  <si>
+    <t>B_O</t>
+  </si>
+  <si>
+    <t>B_XB2</t>
+  </si>
+  <si>
+    <t>A_XN2</t>
+  </si>
+  <si>
+    <t>A_XB2</t>
+  </si>
+  <si>
+    <t>A_DF1</t>
+  </si>
+  <si>
+    <t>A_O</t>
+  </si>
+  <si>
+    <t>B_DF3</t>
   </si>
   <si>
     <t>B_DF2</t>
-  </si>
-  <si>
-    <t>B_DF1</t>
-  </si>
-  <si>
-    <t>A_XN2</t>
-  </si>
-  <si>
-    <t>A_XB2</t>
-  </si>
-  <si>
-    <t>A_DF1</t>
-  </si>
-  <si>
-    <t>B_DF3</t>
-  </si>
-  <si>
-    <t>A_O</t>
-  </si>
-  <si>
-    <t>B_XB2</t>
   </si>
   <si>
     <t>A_DF2</t>
@@ -729,7 +729,7 @@
         <v>98</v>
       </c>
       <c r="E2">
-        <v>13450</v>
+        <v>15858</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,7 +746,7 @@
         <v>98</v>
       </c>
       <c r="E3">
-        <v>6720</v>
+        <v>9026</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -760,10 +760,10 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>5978</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -777,10 +777,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>8510</v>
+        <v>10766</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -794,10 +794,10 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>3614</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -811,10 +811,10 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7">
-        <v>3312</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -828,10 +828,10 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8">
-        <v>2830</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -845,10 +845,10 @@
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9">
-        <v>4012</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -862,10 +862,10 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10">
-        <v>3460</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -879,10 +879,10 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>3140</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -896,10 +896,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12">
-        <v>26254</v>
+        <v>27410</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -913,10 +913,10 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13">
-        <v>15246</v>
+        <v>17502</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -930,10 +930,10 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14">
-        <v>8816</v>
+        <v>11072</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -947,10 +947,10 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15">
-        <v>5600</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -964,10 +964,10 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16">
-        <v>5316</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19">
-        <v>4370</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>98</v>
       </c>
       <c r="E21">
-        <v>2506</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E22">
-        <v>1152</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1083,7 +1083,7 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23">
         <v>302</v>
@@ -1100,7 +1100,7 @@
         <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24">
         <v>302</v>
@@ -1117,7 +1117,7 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25">
         <v>200</v>
@@ -1134,7 +1134,7 @@
         <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E27">
         <v>2164</v>
@@ -1168,7 +1168,7 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>2508</v>
@@ -1185,7 +1185,7 @@
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29">
         <v>1804</v>
@@ -1202,7 +1202,7 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30">
         <v>1936</v>
@@ -1219,7 +1219,7 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31">
         <v>1834</v>
@@ -1239,7 +1239,7 @@
         <v>98</v>
       </c>
       <c r="E32">
-        <v>2912</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1253,7 +1253,7 @@
         <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E33">
         <v>904</v>
@@ -1270,7 +1270,7 @@
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E34">
         <v>904</v>
@@ -1304,10 +1304,10 @@
         <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E36">
-        <v>1254</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,7 +1321,7 @@
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37">
         <v>302</v>
@@ -1338,7 +1338,7 @@
         <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38">
         <v>302</v>
@@ -1355,7 +1355,7 @@
         <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39">
         <v>302</v>
@@ -1457,10 +1457,10 @@
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E45">
-        <v>2712</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46">
-        <v>5002</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1511,7 +1511,7 @@
         <v>98</v>
       </c>
       <c r="E48">
-        <v>1786</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E49">
-        <v>1434</v>
+        <v>1684</v>
       </c>
     </row>
   </sheetData>

--- a/storage/car.xlsx
+++ b/storage/car.xlsx
@@ -184,49 +184,49 @@
     <t>C</t>
   </si>
   <si>
-    <t>365,366,487,253,367,419,458,214,399,255,337,415,273,402,213,252,409,418,427,407,368,183,404,335,256,336,254,250,414,288,182,215,412,398,372,426,406,188,411,245,413,248,417,212,403,251,287,334,247,416,408,246,187,274,405,371,249,488,519,410,0,243,518,244,457</t>
-  </si>
-  <si>
-    <t>182,218,215,487,398,269,427,367,371,372,426,488,519,219,368,183,458,212,214,399,0,335,337,243,213,270,334,518,336,244,457</t>
-  </si>
-  <si>
-    <t>182,218,215,246,487,280,398,274,427,367,371,372,426,245,488,519,219,368,183,458,212,214,399,0,279,243,273,213,518,244,457</t>
-  </si>
-  <si>
-    <t>443,442,182,218,215,434,365,258,487,366,398,430,367,431,432,426,219,458,448,212,403,214,436,399,452,449,279,213,402,437,450,435,441,257,451,453,280,427,433,446,488,445,368,519,440,183,438,439,0,444,243,518,244,447,457</t>
-  </si>
-  <si>
-    <t>215,257,258,487,398,427,371,367,372,426,249,488,519,368,458,212,214,399,0,243,518,213,244,250,457</t>
-  </si>
-  <si>
-    <t>215,257,258,487,398,427,371,367,372,426,488,519,368,458,212,214,399,0,518,213,457</t>
-  </si>
-  <si>
-    <t>319,215,487,398,427,371,367,372,426,488,519,368,318,458,214,399,0,518,457</t>
-  </si>
-  <si>
-    <t>487,398,427,371,367,372,426,488,519,150,368,458,151,399,0,335,337,518,336,334,457</t>
-  </si>
-  <si>
-    <t>487,398,427,371,367,372,426,488,519,368,458,403,399,0,335,337,518,336,402,334,457</t>
-  </si>
-  <si>
-    <t>365,366,487,398,427,430,367,431,426,488,519,368,458,399,0,335,337,518,336,334,457</t>
-  </si>
-  <si>
-    <t>268,360,487,253,326,367,292,267,180,286,328,214,255,352,252,257,298,280,427,208,311,368,318,264,284,310,348,256,315,288,319,295,215,265,178,330,317,346,332,372,331,266,344,322,333,320,210,201,274,207,296,343,249,488,519,321,316,329,242,263,244,204,342,457,209,276,314,176,353,361,177,351,327,312,184,202,347,349,458,399,282,301,279,213,273,270,345,325,362,291,359,179,290,183,281,283,357,181,356,341,254,250,271,182,289,340,398,269,211,324,426,245,248,212,285,251,355,287,294,206,247,293,350,203,300,323,246,371,185,354,299,313,0,243,518,275,272</t>
-  </si>
-  <si>
-    <t>209,314,176,365,361,360,487,366,177,430,367,312,431,180,202,458,214,399,282,301,279,213,270,345,362,298,359,280,427,208,311,179,368,318,183,281,264,310,181,341,315,319,215,182,317,178,340,398,269,211,372,426,245,212,344,322,206,320,210,203,300,201,323,207,371,343,299,313,488,519,321,316,0,263,244,518,204,342,457</t>
-  </si>
-  <si>
-    <t>182,176,178,361,360,487,177,269,398,367,184,211,426,245,202,458,212,214,399,213,270,206,203,362,462,201,298,359,207,427,208,299,179,311,488,368,519,205,183,461,181,0,242,310,243,518,244,204,457</t>
-  </si>
-  <si>
-    <t>182,487,398,269,367,184,211,426,245,458,212,214,399,213,270,462,298,427,299,311,488,368,519,183,461,181,0,242,310,243,518,244,457</t>
-  </si>
-  <si>
-    <t>182,215,298,487,280,398,274,430,367,427,431,426,299,245,488,368,519,183,458,212,214,399,0,279,518,273,213,244,457</t>
+    <t>522,494,250,245,246,503,0,370,524,251,254,413,287,399,531,367,213,411,288,498,510,529,398,491,256,273,253,372,458,334,336,457,462,513,410,416,412,406,500,523,407,496,488,509,508,507,368,404,214,525,547,495,499,369,518,493,461,530,487,535,403,255,511,371,506,532,517,402,516,187,418,497,463,274,527,182,492,464,366,502,505,546,414,244,212,417,252,337,188,419,409,215,514,183,504,528,365,415,427,405,335,512,533,248,526,243,519,501,249,408,534,247,426</t>
+  </si>
+  <si>
+    <t>450,494,503,0,447,219,399,367,213,498,398,372,446,458,334,336,457,445,462,444,443,500,441,496,488,368,440,214,495,547,518,499,461,487,269,439,371,497,218,463,449,452,182,464,502,505,546,244,212,438,337,448,215,183,504,427,453,335,243,519,270,501,451,442,426</t>
+  </si>
+  <si>
+    <t>464,182,218,518,244,367,463,372,457,219,547,495,246,546,214,371,488,399,0,183,212,461,462,215,368,273,439,438,458,279,280,243,494,245,213,398,519,426,487,427,274</t>
+  </si>
+  <si>
+    <t>464,182,403,441,218,518,453,244,367,463,457,257,443,445,219,547,495,451,546,214,434,488,399,0,436,212,183,444,461,258,462,448,215,368,430,438,458,452,402,440,432,433,431,279,447,243,280,427,494,442,213,366,365,398,519,450,437,446,426,439,435,449,487</t>
+  </si>
+  <si>
+    <t>463,213,458,461,371,368,399,439,372,249,487,530,215,0,519,520,494,522,464,258,426,367,521,427,438,523,518,398,212,488,495,214,462,457,250,257,243,244,531</t>
+  </si>
+  <si>
+    <t>0,520,522,519,526,398,439,457,530,368,367,531,487,464,462,461,214,399,488,525,427,438,523,518,258,458,371,257,521,215,213,372,212,426,463</t>
+  </si>
+  <si>
+    <t>525,488,215,371,439,398,558,492,426,461,519,458,462,491,457,372,557,427,438,518,399,368,526,214,319,318,367,487,0</t>
+  </si>
+  <si>
+    <t>525,334,335,488,371,439,398,558,150,492,426,461,519,151,458,462,491,372,557,457,427,336,438,518,368,399,526,337,367,487,0</t>
+  </si>
+  <si>
+    <t>403,525,334,335,488,371,398,558,402,492,426,461,519,458,462,491,457,372,557,427,336,518,399,368,526,337,367,487,0</t>
+  </si>
+  <si>
+    <t>365,337,494,518,430,487,335,367,368,488,0,492,336,399,458,457,525,491,398,519,426,334,366,577,493,578,427,431,526</t>
+  </si>
+  <si>
+    <t>605,494,282,311,293,556,348,0,280,315,321,284,330,245,353,180,276,201,248,488,279,209,439,211,290,326,263,398,319,360,300,257,356,184,329,324,213,206,316,367,271,313,269,183,332,249,343,600,283,606,355,310,291,359,208,599,286,342,203,603,426,244,317,602,350,325,242,289,215,281,296,185,371,632,254,487,555,427,362,361,518,341,492,287,214,519,357,351,345,251,250,179,301,294,352,181,288,662,354,247,272,285,327,399,663,210,178,635,318,265,320,458,493,204,212,634,333,633,253,298,438,368,176,275,252,344,314,246,256,661,299,328,660,264,207,630,266,331,274,349,604,255,601,457,346,267,491,322,323,243,340,295,268,273,631,182,292,347,202,177,270,312,372</t>
+  </si>
+  <si>
+    <t>181,555,519,299,320,202,212,206,178,359,518,180,430,179,606,269,457,603,317,244,312,431,345,316,321,214,182,399,203,600,245,360,342,282,458,314,362,361,340,372,204,398,522,201,319,208,280,322,523,426,281,313,213,632,177,556,209,599,0,602,315,341,310,210,488,215,366,264,604,487,365,211,343,207,183,427,176,344,311,631,263,301,368,270,300,279,367,630,318,298,605,601,323,492,491,633,371</t>
+  </si>
+  <si>
+    <t>181,519,205,213,299,242,177,202,206,212,599,178,359,0,518,602,243,310,179,606,269,457,603,488,604,244,487,211,176,214,207,399,203,427,182,183,311,600,360,245,368,458,270,362,361,367,204,184,398,522,298,605,601,201,492,495,462,494,461,208,491,523,426</t>
+  </si>
+  <si>
+    <t>181,242,519,213,299,212,599,0,518,602,464,243,310,606,269,457,603,488,463,604,244,487,211,214,399,182,427,183,311,600,245,368,458,270,367,184,398,298,605,601,495,462,494,461,426</t>
+  </si>
+  <si>
+    <t>519,273,299,213,212,599,274,0,518,602,430,457,488,215,244,487,431,214,399,182,427,183,600,245,368,458,279,367,398,298,601,495,462,494,461,280,426</t>
   </si>
   <si>
     <t>151,150,218,219,0,243,244</t>
@@ -235,55 +235,58 @@
     <t>249,243,365,367,366,250,244,0,368</t>
   </si>
   <si>
-    <t>427,373,367,372,374,403,375,243,368,461,402,398,430,280,431,462,0,370,399,279,244,432,433,366,371,426,365</t>
+    <t>0,402,370,403,374,398,279,439,535,368,530,426,367,431,531,372,375,464,534,533,432,462,547,532,461,243,280,399,427,438,373,366,430,244,365,371,433,546,463</t>
   </si>
   <si>
     <t>243,279,244,0,280</t>
   </si>
   <si>
-    <t>399,427,396,402,0,397,426,182,403,368,398,367,181</t>
-  </si>
-  <si>
-    <t>426,427,182,0,365,366,398,399,181</t>
-  </si>
-  <si>
-    <t>335,0,334</t>
-  </si>
-  <si>
-    <t>0,334,335</t>
+    <t>182,368,181,403,397,402,367,547,546,492,396,398,399,0,426,491,427</t>
+  </si>
+  <si>
+    <t>182,546,181,365,366,398,522,399,523,0,426,427,547</t>
+  </si>
+  <si>
+    <t>487,519,335,488,0,334,518</t>
+  </si>
+  <si>
+    <t>519,335,0,334,518</t>
   </si>
   <si>
     <t>0,273,274</t>
   </si>
   <si>
-    <t>398,367,319,365,368,246,399,243,0,244,245,366,318</t>
-  </si>
-  <si>
-    <t>367,299,399,298,181,310,398,368,182,273,426,427,311,340,0,274,341</t>
-  </si>
-  <si>
-    <t>398,402,340,365,181,399,280,182,0,366,279,403,341</t>
-  </si>
-  <si>
-    <t>0,177,182,176,365,367,366,183,287,341,368,340,288</t>
-  </si>
-  <si>
-    <t>311,0,310,207,288,365,367,213,366,206,368,212,287</t>
-  </si>
-  <si>
-    <t>201,182,213,204,212,184,270,214,420,0,269,310,181,203,177,183,202,176,421,211,311</t>
-  </si>
-  <si>
-    <t>279,213,0,212,280,270,269</t>
-  </si>
-  <si>
-    <t>0,310,182,311,244,181,243</t>
+    <t>600,245,569,368,599,0,367,243,398,318,399,488,568,319,366,244,487,365,481,246,480</t>
+  </si>
+  <si>
+    <t>182,310,273,311,427,0,299,426,298,368,181,340,399,569,398,438,519,518,367,568,274,439,341</t>
+  </si>
+  <si>
+    <t>279,341,552,465,182,0,403,399,402,551,516,398,181,517,280,464,365,366,340</t>
+  </si>
+  <si>
+    <t>341,552,465,182,0,177,288,176,287,551,183,367,464,365,366,340,368</t>
+  </si>
+  <si>
+    <t>365,288,558,207,287,311,366,557,206,368,555,212,556,367,310,213,0</t>
+  </si>
+  <si>
+    <t>420,203,311,176,0,518,269,421,183,661,214,519,660,310,182,202,212,204,184,177,213,270,201,181,211</t>
+  </si>
+  <si>
+    <t>213,212,269,279,485,280,0,486,270</t>
+  </si>
+  <si>
+    <t>495,311,0,310,182,517,244,181,494,516,243</t>
   </si>
   <si>
     <t>151,187,190,150,188,0,189</t>
   </si>
   <si>
-    <t>426,427,334,365,335,367,366,368,0</t>
+    <t>371,492,334,366,368,365,0,370,335,427,367,462,372,486,491,481,369,480,485,426,461,556,555</t>
+  </si>
+  <si>
+    <t>0,487,488,335,334</t>
   </si>
   <si>
     <t>273,0,274</t>
@@ -295,25 +298,25 @@
     <t>365,366,0,367,368</t>
   </si>
   <si>
-    <t>185,299,182,280,365,176,0,184,298,183,181,212,186,366,177,279,244,213,245</t>
-  </si>
-  <si>
-    <t>183,278,257,246,274,367,245,182,403,277,281,243,368,276,282,461,402,430,280,431,462,275,0,244,273,279,319,366,258,318,365</t>
-  </si>
-  <si>
-    <t>366,365,396,311,310,425,0,397,424,258,431,368,257,367,430</t>
-  </si>
-  <si>
-    <t>365,244,340,213,212,0,177,274,273,245,176,366,341</t>
-  </si>
-  <si>
-    <t>207,310,274,311,206,365,366,243,273,0,244</t>
+    <t>298,366,244,176,0,183,492,186,491,661,365,299,660,280,182,245,212,177,184,213,185,488,181,279,487</t>
+  </si>
+  <si>
+    <t>403,281,273,277,599,274,0,243,430,257,366,244,276,365,431,246,182,183,600,245,402,278,368,282,258,279,367,275,318,522,319,462,461,280,523</t>
+  </si>
+  <si>
+    <t>495,366,311,310,424,431,397,0,367,368,462,430,461,425,365,396,257,258,494</t>
+  </si>
+  <si>
+    <t>0,461,519,273,366,177,274,212,516,245,518,244,365,530,531,341,213,340,517,176,462</t>
+  </si>
+  <si>
+    <t>365,273,519,492,491,244,0,274,206,366,310,311,207,517,518,243,516</t>
   </si>
   <si>
     <t>B_O</t>
   </si>
   <si>
-    <t>B_XB2</t>
+    <t>B_DF1</t>
   </si>
   <si>
     <t>A_XN2</t>
@@ -328,13 +331,10 @@
     <t>A_O</t>
   </si>
   <si>
-    <t>B_DF3</t>
-  </si>
-  <si>
-    <t>B_DF2</t>
-  </si>
-  <si>
     <t>A_DF2</t>
+  </si>
+  <si>
+    <t>B_XB3</t>
   </si>
 </sst>
 </file>
@@ -726,10 +726,10 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>15858</v>
+        <v>25404</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -743,10 +743,10 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>9026</v>
+        <v>14896</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,7 +763,7 @@
         <v>99</v>
       </c>
       <c r="E4">
-        <v>7134</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -777,10 +777,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>10766</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,7 +797,7 @@
         <v>99</v>
       </c>
       <c r="E6">
-        <v>4770</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,7 +814,7 @@
         <v>99</v>
       </c>
       <c r="E7">
-        <v>4468</v>
+        <v>6344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,7 +831,7 @@
         <v>99</v>
       </c>
       <c r="E8">
-        <v>3986</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,7 +848,7 @@
         <v>99</v>
       </c>
       <c r="E9">
-        <v>5168</v>
+        <v>6362</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -862,10 +862,10 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10">
-        <v>5716</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -879,10 +879,10 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E11">
-        <v>5396</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -896,10 +896,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>27410</v>
+        <v>29372</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -913,10 +913,10 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>17502</v>
+        <v>18866</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -930,10 +930,10 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>11072</v>
+        <v>12232</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -947,10 +947,10 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>7856</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -964,10 +964,10 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>7572</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -981,7 +981,7 @@
         <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>854</v>
@@ -998,7 +998,7 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>894</v>
@@ -1015,10 +1015,10 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19">
-        <v>4520</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1032,7 +1032,7 @@
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <v>352</v>
@@ -1049,10 +1049,10 @@
         <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21">
-        <v>2708</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22">
-        <v>1402</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1083,10 +1083,10 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E23">
-        <v>302</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E24">
-        <v>302</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1117,7 +1117,7 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>200</v>
@@ -1134,7 +1134,7 @@
         <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -1151,10 +1151,10 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>2164</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1168,10 +1168,10 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>2508</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1185,10 +1185,10 @@
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E29">
-        <v>1804</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1202,10 +1202,10 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E30">
-        <v>1936</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1219,10 +1219,10 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E31">
-        <v>1834</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1236,10 +1236,10 @@
         <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E32">
-        <v>3114</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1253,10 +1253,10 @@
         <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E33">
-        <v>904</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,10 +1270,10 @@
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E34">
-        <v>904</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,7 +1287,7 @@
         <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>1056</v>
@@ -1304,10 +1304,10 @@
         <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E36">
-        <v>1504</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1318,13 +1318,13 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E37">
-        <v>302</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,10 +1335,10 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E38">
         <v>302</v>
@@ -1352,10 +1352,10 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E39">
         <v>302</v>
@@ -1369,10 +1369,10 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E40">
         <v>390</v>
@@ -1386,10 +1386,10 @@
         <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E41">
         <v>390</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>2962</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1471,13 +1471,13 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46">
-        <v>5152</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1488,13 +1488,13 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>1650</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1505,13 +1505,13 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E48">
-        <v>2088</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1522,13 +1522,13 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E49">
-        <v>1684</v>
+        <v>2424</v>
       </c>
     </row>
   </sheetData>
